--- a/tests/files/parseUpload_InvalidTest.xlsx
+++ b/tests/files/parseUpload_InvalidTest.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STETTN~1\DOCUME~1\MobaXterm\slash\RemoteFiles\1376328_2_28\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91366D93-DACA-49E1-9CD6-1670AAF39B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ApprovedCourses (2)" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="ApprovedCourses (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,123 +28,104 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t xml:space="preserve">Fall 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSC 226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00759117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaston Jarju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0073973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eben Ezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIS 236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00776544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali Ramazani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00708826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gertrude Mbewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSC 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00759106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleur Gahimbare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00733993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Narteh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSC 650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00741640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anh Ngo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00751864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Pulido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fall 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT 450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00751360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alisha Supeidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika Arvizu</t>
+    <t>Fall 2020</t>
+  </si>
+  <si>
+    <t>CSC 226</t>
+  </si>
+  <si>
+    <t>B00759117</t>
+  </si>
+  <si>
+    <t>Gaston Jarju</t>
+  </si>
+  <si>
+    <t>B0073973</t>
+  </si>
+  <si>
+    <t>Eben Ezer</t>
+  </si>
+  <si>
+    <t>HIS 236</t>
+  </si>
+  <si>
+    <t>B00776544</t>
+  </si>
+  <si>
+    <t>Ali Ramazani</t>
+  </si>
+  <si>
+    <t>B00708826</t>
+  </si>
+  <si>
+    <t>Gertrude Mbewe</t>
+  </si>
+  <si>
+    <t>Spring 2020</t>
+  </si>
+  <si>
+    <t>CSC 450</t>
+  </si>
+  <si>
+    <t>B00759106</t>
+  </si>
+  <si>
+    <t>Fleur Gahimbare</t>
+  </si>
+  <si>
+    <t>B00733993</t>
+  </si>
+  <si>
+    <t>Isaac Narteh</t>
+  </si>
+  <si>
+    <t>Summer 2021</t>
+  </si>
+  <si>
+    <t>CSC 650</t>
+  </si>
+  <si>
+    <t>B00741640</t>
+  </si>
+  <si>
+    <t>Anh Ngo</t>
+  </si>
+  <si>
+    <t>B00751864</t>
+  </si>
+  <si>
+    <t>Claudia Pulido</t>
+  </si>
+  <si>
+    <t>Fall 2019</t>
+  </si>
+  <si>
+    <t>MAT 450</t>
+  </si>
+  <si>
+    <t>B00751360</t>
+  </si>
+  <si>
+    <t>Alisha Supeidi</t>
+  </si>
+  <si>
+    <t>B00000000</t>
+  </si>
+  <si>
+    <t>Erika Arvizu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +137,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -159,105 +145,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -289,7 +251,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -313,7 +275,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -373,158 +335,157 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.36"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -532,35 +493,20 @@
   <mergeCells count="1">
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>